--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_fgj_jhg_jj_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_fgj_jhg_jj_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572AD379-5360-4D24-95E5-C72A7CC8B547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A74AB4F5-6D6D-469A-B86D-A77B4BA64826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27030" yWindow="900" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
